--- a/medicine/Enfance/Penelope_Lively/Penelope_Lively.xlsx
+++ b/medicine/Enfance/Penelope_Lively/Penelope_Lively.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Penelope Lively, née le 17 mars 1933 au Caire, est une écrivaine britannique.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle écrit aussi bien pour les adultes que pour les enfants.
 Elle est dame commandeur de l'ordre de l'Empire britannique (DBE) et membre de la Royal Society of Literature.
@@ -544,7 +558,9 @@
           <t>Littérature pour enfants</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle engrange ses premiers succès grâce à la littérature pour enfants. Son premier livre Astercote, œuvre fantastique se déroulant dans un village des Cotswolds et les bois qui l'entourent, là où se dressait anciennement un village médiéval réduit à néant par la peste noire, est publié par Heinemann en 1970.
 </t>
@@ -575,7 +591,9 @@
           <t>Œuvres pour adultes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son premier roman pour adultes, The Road to Lichfield, est lui aussi publié par Heinemann en 1977 et sélectionné pour le Booker Prize. Elle renouvelle l'exploit en 1984 avec According to Mark, et remporte le prix de 1987 avec Moon Tiger (Serpent de lune). Cette dernière œuvre est un roman relatant la tumultueuse histoire d'une historienne alors que celle-ci se trouve alitée, mourante dans un hôpital anglais. Comme ses autres romans, Moon Tiger est marqué par une attention particulière portée à la mémoire, l'impact du passé sur le présent, et la tension entre les versions officielles et personnelles de l'Histoire.
 Ces thématiques sont explorées explicitement dans ses œuvres de non-fiction, parmi elles A House Unlocked (2001) et Oleander, Jacaranda : A Childhood Perceived (1994), le récit de son enfance en Égypte. Sa dernière œuvre de non-fiction Ammonites &amp; Leaping Fish ; A Life in Time (plus tard connue sous le nom de Dancing Fish and Ammonites : A Memoir) fut publiée en 2013.
@@ -608,7 +626,9 @@
           <t>Œuvres traduites en français</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Le Fantôme de Thomas Kempe [« The Ghost of Thomas Kempe »], ill. de Jean-Marc Pariselle, trad. de Jean Queval, Paris, Fernand Nathan, coll. « Bibliothèque internationale », 1976, 221 p. ((BNF 34584434))
 Histoire des animaux restés seuls sur la terre [« The Voyage of "Q.V. 66" »], ill. de Patrice Douenat, trad. de Jean Queval, Paris, Fernand Nathan, coll. « Arc-en-poche. Deux », 1981, 188 p. ( (ISBN 2-09-283406-1))
@@ -651,10 +671,12 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>1973 : Médaille Carnegie pour The Ghost of Thomas Kempe (Le Fantôme de Thomas Kempe)
-1976 : (international) « Honor List »[2], de l' IBBY, pour The Ghost of Thomas Kempe (Le Fantôme de Thomas Kempe)
+1976 : (international) « Honor List », de l' IBBY, pour The Ghost of Thomas Kempe (Le Fantôme de Thomas Kempe)
 1987 : Prix Booker pour Moon Tiger (Serpent de Lune).</t>
         </is>
       </c>
